--- a/Ventas.xlsx
+++ b/Ventas.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PR-3859265488WP3L</t>
+          <t>PR-5324400431X724</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cereal</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -476,11 +476,67 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Kellogs</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PR-01062918706PY6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PRC-00002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Lala</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PR-2319481912D2GS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PRC-00003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bimbo</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +598,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CL-395031106882YE</t>
+          <t>CL-53599631145GRI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -552,27 +608,101 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>David Beckham</t>
+          <t>Josefo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Colonia Bosques de Viena</t>
+          <t>Colonia Bonilla</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>35939442</t>
+          <t>33778899</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>davincchi@gmail.com</t>
+          <t>fer@gmail.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CL-0326828760RKBB</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CLC-00002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Hermenegildo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Puerto Barrios</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21210909</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>herqww@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CL-3437554150ZGOH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CLC-00003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Juancho</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Zimbabue</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34778890</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>juancho@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>
@@ -587,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +762,161 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PRC-00001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CLC-00001</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>52</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-10-22 22:59:29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>anulada</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PRC-00002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CLC-00002</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-10-22 23:03:40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>anulada</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PRC-00003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CLC-00001</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-10-22 23:29:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>anulada</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PRC-00002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CLC-00001</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-10-22 23:29:13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>activa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PRC-00003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CLC-00003</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-10-22 23:35:20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>activa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
